--- a/API_5/test_cases/test_api.xlsx
+++ b/API_5/test_cases/test_api.xlsx
@@ -1864,7 +1864,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"登录成功"}</t>
+          <t>&lt;html&gt;&lt;head&gt;&lt;title&gt;Apache Tomcat/6.0.53 - Error report&lt;/title&gt;&lt;style&gt;&lt;!--H1 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:22px;} H2 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:16px;} H3 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:14px;} BODY {font-family:Tahoma,Arial,sans-serif;color:black;background-color:white;} B {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;} P {font-family:Tahoma,Arial,sans-serif;background:white;color:black;font-size:12px;}A {color : black;}A.name {color : black;}HR {color : #525D76;}--&gt;&lt;/style&gt; &lt;/head&gt;&lt;body&gt;&lt;h1&gt;HTTP Status 404 - &lt;/h1&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;p&gt;&lt;b&gt;type&lt;/b&gt; Status report&lt;/p&gt;&lt;p&gt;&lt;b&gt;message&lt;/b&gt; &lt;u&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;description&lt;/b&gt; &lt;u&gt;The requested resource is not available.&lt;/u&gt;&lt;/p&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;h3&gt;Apache Tomcat/6.0.53&lt;/h3&gt;&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -1914,7 +1914,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"加标成功"}</t>
+          <t>&lt;html&gt;&lt;head&gt;&lt;title&gt;Apache Tomcat/6.0.53 - Error report&lt;/title&gt;&lt;style&gt;&lt;!--H1 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:22px;} H2 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:16px;} H3 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:14px;} BODY {font-family:Tahoma,Arial,sans-serif;color:black;background-color:white;} B {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;} P {font-family:Tahoma,Arial,sans-serif;background:white;color:black;font-size:12px;}A {color : black;}A.name {color : black;}HR {color : #525D76;}--&gt;&lt;/style&gt; &lt;/head&gt;&lt;body&gt;&lt;h1&gt;HTTP Status 404 - &lt;/h1&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;p&gt;&lt;b&gt;type&lt;/b&gt; Status report&lt;/p&gt;&lt;p&gt;&lt;b&gt;message&lt;/b&gt; &lt;u&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;description&lt;/b&gt; &lt;u&gt;The requested resource is not available.&lt;/u&gt;&lt;/p&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;h3&gt;Apache Tomcat/6.0.53&lt;/h3&gt;&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>{"status":1,"code":"10001","data":null,"msg":"更新状态成功：竞标开始，当前标为竞标中状态"}</t>
+          <t>&lt;html&gt;&lt;head&gt;&lt;title&gt;Apache Tomcat/6.0.53 - Error report&lt;/title&gt;&lt;style&gt;&lt;!--H1 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:22px;} H2 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:16px;} H3 {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;font-size:14px;} BODY {font-family:Tahoma,Arial,sans-serif;color:black;background-color:white;} B {font-family:Tahoma,Arial,sans-serif;color:white;background-color:#525D76;} P {font-family:Tahoma,Arial,sans-serif;background:white;color:black;font-size:12px;}A {color : black;}A.name {color : black;}HR {color : #525D76;}--&gt;&lt;/style&gt; &lt;/head&gt;&lt;body&gt;&lt;h1&gt;HTTP Status 404 - &lt;/h1&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;p&gt;&lt;b&gt;type&lt;/b&gt; Status report&lt;/p&gt;&lt;p&gt;&lt;b&gt;message&lt;/b&gt; &lt;u&gt;&lt;/u&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;description&lt;/b&gt; &lt;u&gt;The requested resource is not available.&lt;/u&gt;&lt;/p&gt;&lt;HR size="1" noshade="noshade"&gt;&lt;h3&gt;Apache Tomcat/6.0.53&lt;/h3&gt;&lt;/body&gt;&lt;/html&gt;</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
